--- a/Case_Study_Status.xlsx
+++ b/Case_Study_Status.xlsx
@@ -1,23 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dell\caseStudy\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{610FE5A6-E7D7-4798-A346-45236AC1597F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="7" rupBuild="4507"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{53F50027-C79E-4D22-822A-3BDAED572482}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20736" windowHeight="11160"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="125725"/>
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -214,8 +208,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -316,7 +310,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -368,7 +362,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -562,31 +556,31 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96E85CDD-6846-4CEB-88A5-12B048A1FB1A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="34.28515625" customWidth="1"/>
-    <col min="2" max="2" width="14.28515625" customWidth="1"/>
-    <col min="3" max="3" width="13.42578125" customWidth="1"/>
-    <col min="4" max="4" width="14.140625" customWidth="1"/>
-    <col min="5" max="5" width="12.140625" customWidth="1"/>
+    <col min="1" max="1" width="34.33203125" customWidth="1"/>
+    <col min="2" max="2" width="14.33203125" customWidth="1"/>
+    <col min="3" max="3" width="13.44140625" customWidth="1"/>
+    <col min="4" max="4" width="14.109375" customWidth="1"/>
+    <col min="5" max="5" width="12.109375" customWidth="1"/>
     <col min="6" max="6" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" ht="24" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -606,7 +600,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -620,7 +614,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -634,7 +628,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -648,7 +642,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -662,7 +656,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -676,7 +670,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -696,7 +690,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6">
       <c r="A8" t="s">
         <v>10</v>
       </c>
@@ -710,13 +704,13 @@
         <v>23</v>
       </c>
       <c r="E8" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F8" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" t="s">
         <v>24</v>
       </c>
@@ -733,10 +727,10 @@
         <v>1</v>
       </c>
       <c r="F9" s="2">
-        <v>0.75</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -756,7 +750,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6">
       <c r="A11" t="s">
         <v>12</v>
       </c>
@@ -776,7 +770,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6">
       <c r="A12" t="s">
         <v>13</v>
       </c>
@@ -796,7 +790,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6">
       <c r="A13" t="s">
         <v>14</v>
       </c>
@@ -816,7 +810,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6">
       <c r="A14" t="s">
         <v>15</v>
       </c>
@@ -836,7 +830,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6">
       <c r="A15" t="s">
         <v>16</v>
       </c>
